--- a/Tesis/ProposalTesis/Template Thesis Mapping R3-2.xlsx
+++ b/Tesis/ProposalTesis/Template Thesis Mapping R3-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TokoNabila\Documents\BINUS\speech-enhancement-arn\Tesis\ProposalTesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20C8E528-9998-43F2-89E7-F2209A339EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47FC4BD-E742-4BAA-8833-E50384E828BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{920006E3-CE80-F24E-B4A1-27FF9FE99DF5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Full Name :</t>
   </si>
@@ -212,12 +212,36 @@
   <si>
     <t xml:space="preserve">PERSAMAAN 12 : </t>
   </si>
+  <si>
+    <t>Block self attention</t>
+  </si>
+  <si>
+    <t>RNN menggunakan lstm</t>
+  </si>
+  <si>
+    <t>feed forward</t>
+  </si>
+  <si>
+    <t>loss function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantization </t>
+  </si>
+  <si>
+    <t>https://www.audiolabs-erlangen.de/resources/MIR/FMP/C2/C2S2_DigitalSignalQuantization.html</t>
+  </si>
+  <si>
+    <t>https://github.com/KrishnanSG/Audio-Compression/blob/master/Compression.py</t>
+  </si>
+  <si>
+    <t>change wav to mp3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -296,6 +320,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -524,10 +556,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -643,12 +676,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -664,36 +727,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -703,8 +736,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -725,15 +760,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1077059</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>146537</xdr:rowOff>
+      <xdr:colOff>410309</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>590168</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>36635</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3550245</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>102579</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -756,7 +791,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1912328" y="11620499"/>
+          <a:off x="1245578" y="12873404"/>
           <a:ext cx="3139936" cy="1472713"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -769,15 +804,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1179636</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
+      <xdr:colOff>1399443</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>344367</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>41215</xdr:rowOff>
+      <xdr:colOff>564174</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>158447</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -800,7 +835,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2014905" y="9920654"/>
+          <a:off x="2234712" y="10037885"/>
           <a:ext cx="2791558" cy="1594523"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -814,13 +849,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1384788</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>21981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2940368</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>117230</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -857,22 +892,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1362808</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>109905</xdr:rowOff>
+      <xdr:colOff>1238252</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>102576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>175847</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>7407</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3319098</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>37770</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
+        <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03427E2-DDA7-85E6-9E10-2690C37A4424}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48B1BBDD-9A27-4A12-78D7-02A2FBD180DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -888,316 +923,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2198077" y="8220809"/>
-          <a:ext cx="2439866" cy="886636"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1245577</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>39108</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3289789</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>7473</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B09229-617B-4299-EEE4-E95B2977AAE4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2080846" y="7358704"/>
-          <a:ext cx="2044212" cy="759673"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1905001</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>36637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3370385</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>192944</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2AE742E-43D4-AE62-F26B-A5EA65CBE050}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2740270" y="6169272"/>
-          <a:ext cx="1465384" cy="1343268"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1406770</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>102577</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>395655</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>26686</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48B1BBDD-9A27-4A12-78D7-02A2FBD180DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2242039" y="5246077"/>
-          <a:ext cx="2615712" cy="913244"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1304193</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>101466</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3524251</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>6758</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8368CEA0-2E5B-4665-ABE6-F16D19E7BC32}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2139462" y="4453658"/>
-          <a:ext cx="2220058" cy="696600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1377461</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>158425</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3348404</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>143015</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0895B867-C0B8-C6B7-C5E6-6C157C608254}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2212730" y="3719310"/>
-          <a:ext cx="1970943" cy="578070"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1340827</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>53135</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>73269</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B030AB-96BB-6996-F7DF-0CC60FA30300}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2176096" y="2996712"/>
-          <a:ext cx="2339135" cy="637442"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1150327</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>293077</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>49738</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB9426E-8DCE-7841-6574-E6B3B007C73B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1985596" y="2366596"/>
-          <a:ext cx="2769577" cy="452719"/>
+          <a:off x="2073521" y="4652595"/>
+          <a:ext cx="2080846" cy="726502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1233,7 +960,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1242,6 +969,376 @@
         <a:xfrm>
           <a:off x="2190751" y="1674486"/>
           <a:ext cx="1809750" cy="527381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1186961</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>139212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>29307</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>46766</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="page3image6554016">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7368DABC-2123-9657-64A8-B8A0D579B00B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2022230" y="3897924"/>
+          <a:ext cx="3604846" cy="698861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="{\displaystyle \operatorname {MSE} ={\frac {1}{n}}\sum _{i=1}^{n}\left(Y_{i}-{\hat {Y_{i}}}\right)^{2}.}">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA851037-9324-8E39-EBC8-39896D9D0989}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5600700" y="5800725"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="{\displaystyle \operatorname {MSE} ={\frac {1}{n}}\sum _{i=1}^{n}\left(Y_{i}-{\hat {Y_{i}}}\right)^{2}.}">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8208F2-30D9-BAC6-A462-EBFBF76B1EB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7096125" y="4000500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1692520</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>155520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>106785</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>51289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Diagram&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D27C6A14-0AD9-00FC-4886-3873B869B4F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noGrp="1" noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2527789" y="5496847"/>
+          <a:ext cx="2041092" cy="1082730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1597270</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>181892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3282462</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Diagram&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D81958FA-BD83-1C9E-D72A-7064DF14C76F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noGrp="1" noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2432539" y="6908007"/>
+          <a:ext cx="1685192" cy="1024339"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1414095</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3041628</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>73270</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A35D4BE3-7CE9-C961-F444-572B7C20F2C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2249364" y="8623789"/>
+          <a:ext cx="1627533" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1370134</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>80596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>534866</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>32532</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="Text, whiteboard&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C43C369-357E-C22A-A19A-A76E9AFF67D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noGrp="1" noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2205403" y="8191500"/>
+          <a:ext cx="2791559" cy="347590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1414097</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>73270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3069982</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>187585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6113D2F3-30A6-4D3F-583C-001E96976910}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:srcRect t="12345"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2249366" y="2447193"/>
+          <a:ext cx="1655885" cy="312142"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1645,43 +1742,43 @@
     </row>
     <row r="8" spans="3:11" ht="21" customHeight="1">
       <c r="C8" s="7"/>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
     </row>
     <row r="9" spans="3:11" ht="18.95" customHeight="1">
       <c r="C9" s="7"/>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
     </row>
     <row r="10" spans="3:11" ht="37.5">
       <c r="C10" s="8"/>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="49"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="49"/>
+      <c r="H10" s="59"/>
       <c r="I10" s="13" t="s">
         <v>10</v>
       </c>
@@ -1693,7 +1790,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" ht="31.5">
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="60" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="15" t="s">
@@ -1722,7 +1819,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" ht="63.75">
-      <c r="C12" s="51"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="20" t="s">
         <v>22</v>
       </c>
@@ -1749,10 +1846,10 @@
       </c>
     </row>
     <row r="13" spans="3:11" ht="17.100000000000001" customHeight="1">
-      <c r="C13" s="52">
+      <c r="C13" s="48">
         <v>1</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="30"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
@@ -1762,8 +1859,8 @@
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="3:11">
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="12"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
@@ -1773,8 +1870,8 @@
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="3:11">
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="30"/>
       <c r="F15" s="29"/>
       <c r="G15" s="33"/>
@@ -1784,8 +1881,8 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="3:11" ht="16.5" thickBot="1">
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="40"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -1795,48 +1892,48 @@
       <c r="K16" s="16"/>
     </row>
     <row r="17" spans="3:11" ht="16.5" thickTop="1">
-      <c r="C17" s="45">
+      <c r="C17" s="56">
         <v>2</v>
       </c>
-      <c r="D17" s="56"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="42"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
-      <c r="I17" s="59"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
     </row>
     <row r="18" spans="3:11">
-      <c r="C18" s="46"/>
-      <c r="D18" s="57"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="43"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="60"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="3:11">
-      <c r="C19" s="46"/>
-      <c r="D19" s="57"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="43"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
-      <c r="I19" s="60"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="3:11" ht="16.5" thickBot="1">
-      <c r="C20" s="47"/>
-      <c r="D20" s="58"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="44"/>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
-      <c r="I20" s="61"/>
+      <c r="I20" s="55"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
     </row>
@@ -1866,17 +1963,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D8:K8"/>
     <mergeCell ref="D9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="D17:D20"/>
     <mergeCell ref="I17:I20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1885,10 +1982,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CC28B1-7924-FE46-8EA2-57D2100FED8C}">
-  <dimension ref="B4:J72"/>
+  <dimension ref="B4:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1981,107 +2078,140 @@
       <c r="B13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="C13" s="65" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="41"/>
-    </row>
-    <row r="21" spans="2:2">
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
       <c r="B21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:3">
       <c r="B22" s="22"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:3">
       <c r="B23" s="22"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:3">
       <c r="B24" s="22"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:3">
       <c r="B25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:3">
       <c r="B26" s="22"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:3">
       <c r="B27" s="22"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:3">
       <c r="B29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="22"/>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="22"/>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="22"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" t="s">
+      <c r="B33" s="22"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="22"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="22"/>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="22"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" t="s">
+      <c r="B40" s="22"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="22"/>
+    <row r="78" spans="2:2">
+      <c r="B78" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C4:J4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{0E836216-7A8D-4663-892F-B6BF79EFB50C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2199,15 +2329,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3F97DC4-80B0-429F-BC13-3130ABE16E08}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0E9FEEE-8A9E-4526-8100-89DA6B0B0225}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2229,16 +2369,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0E9FEEE-8A9E-4526-8100-89DA6B0B0225}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3F97DC4-80B0-429F-BC13-3130ABE16E08}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>